--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2350.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2350.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9319434088589683</v>
+        <v>1.002495288848877</v>
       </c>
       <c r="B1">
-        <v>1.497323699024756</v>
+        <v>2.112586498260498</v>
       </c>
       <c r="C1">
-        <v>3.577600324267397</v>
+        <v>6.793773651123047</v>
       </c>
       <c r="D1">
-        <v>2.418211941018279</v>
+        <v>1.952247977256775</v>
       </c>
       <c r="E1">
-        <v>1.176081097731053</v>
+        <v>1.372190833091736</v>
       </c>
     </row>
   </sheetData>
